--- a/comparaison des temps de calcul.xlsx
+++ b/comparaison des temps de calcul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENSTA\Cours\2A\SIM202\SIM202_Orbite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA82A1A-FB45-4487-BC01-0ACFF80F071B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B88A5-219D-4E1D-9218-CC6953595362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC64D1AD-2AE0-48FB-9576-33490555AC6F}"/>
   </bookViews>
@@ -112,6 +112,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Comparaison des temps de calcul pour 100 itérations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -125,7 +150,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -151,7 +176,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Euler_quad</c:v>
+            <c:v>Algorithme de Barnes Hunt</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -281,15 +306,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Euler_Val</c:v>
+            <c:v>Algortihme naïf</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -300,129 +325,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-79DA-49F2-BA51-BD27E4B2E5CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Euler_Thib</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -538,6 +445,142 @@
         </c:dLbls>
         <c:axId val="423878888"/>
         <c:axId val="423877576"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Euler_Val</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$2:$B$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8192</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$2:$D$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>344</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1376</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5491</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-79DA-49F2-BA51-BD27E4B2E5CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="423878888"/>
@@ -568,7 +611,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -600,7 +643,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -638,7 +681,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -685,7 +728,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -699,13 +742,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Temps de calcul</a:t>
+                  <a:t>Temps de calcul pour 100 itérations</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> pour 100 itérations</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -722,7 +760,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -760,7 +798,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -789,7 +827,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15592746422972187"/>
+          <c:y val="0.15684817077618277"/>
+          <c:w val="0.2593710323101292"/>
+          <c:h val="0.12769451458620606"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -802,7 +850,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -842,7 +890,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1300" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -850,7 +898,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2382,7 +2430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -2747,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368C15E-BF75-40D7-9BCF-3EEC2D1CA39D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/comparaison des temps de calcul.xlsx
+++ b/comparaison des temps de calcul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENSTA\Cours\2A\SIM202\SIM202_Orbite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B88A5-219D-4E1D-9218-CC6953595362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5DF09F-C751-4C8A-85E4-3B3E02BD6F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC64D1AD-2AE0-48FB-9576-33490555AC6F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>i</t>
   </si>
@@ -42,7 +43,10 @@
     <t>Temps de calcul pour Euler de Thib</t>
   </si>
   <si>
-    <t xml:space="preserve">Colonne C / Colonne B </t>
+    <t>nlog(n)</t>
+  </si>
+  <si>
+    <t>n^2</t>
   </si>
 </sst>
 </file>
@@ -325,11 +329,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -918,6 +922,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>de calcul pour 100 itérations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> en fonction de nlog(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -931,7 +973,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -950,14 +992,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Temps de calcul</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -966,142 +1011,120 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9375</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0625</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.984375</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0234375</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.21484375</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.271484375</c:v>
+                  <c:v>4608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.4404296875</c:v>
+                  <c:v>10240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.33251953125</c:v>
+                  <c:v>22528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.9814453125</c:v>
+                  <c:v>49152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.9764404296875</c:v>
+                  <c:v>106496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8044-4CDD-98DF-3310DC34EEB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>log</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8044-4CDD-98DF-3310DC34EEB4}"/>
+              <c16:uniqueId val="{00000004-E414-493E-8618-89F93E7C3023}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1113,17 +1136,95 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="680020248"/>
-        <c:axId val="680020576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="680020248"/>
+        <c:axId val="423878888"/>
+        <c:axId val="423877576"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423878888"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800"/>
+                  <a:t>nlog(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46323936007179134"/>
+              <c:y val="0.90444568406822234"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1133,8 +1234,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1146,7 +1247,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1161,16 +1262,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680020576"/>
+        <c:crossAx val="423877576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="680020576"/>
+        <c:axId val="423877576"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1189,14 +1288,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps de calcul pour 100 itérations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1205,7 +1365,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1220,9 +1380,9 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680020248"/>
+        <c:crossAx val="423878888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1232,46 +1392,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1294,7 +1416,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1300" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -1302,7 +1424,523 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>de calcul pour 100 itérations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> en fonction de nlog(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temps de calcul</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>677049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BBB-4ADB-B4FB-8BF5C9C42F59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423878888"/>
+        <c:axId val="423877576"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423878888"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800"/>
+                  <a:t>nlog(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46323936007179134"/>
+              <c:y val="0.90444568406822234"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423877576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423877576"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps de calcul pour 100 itérations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423878888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1387,6 +2025,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1904,7 +2582,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1931,8 +2609,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2012,11 +2690,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2027,11 +2700,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2043,7 +2711,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2063,9 +2731,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2078,10 +2743,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2121,22 +2786,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2241,8 +2907,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2374,23 +3040,240 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2400,6 +3283,317 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2459,27 +3653,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>206692</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35242</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>141786</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246EAF17-92F5-4751-B0CC-49925B9644CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C4DF9E-A192-46ED-8CD5-252E2CB8858D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2488,6 +3684,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>141787</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>68852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4097A0CC-9ED7-48B2-A566-D92C6FCB853B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2793,10 +4027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368C15E-BF75-40D7-9BCF-3EEC2D1CA39D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,7 +4043,7 @@
     <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2828,8 +4062,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2847,11 +4084,15 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>C2/B2</f>
-        <v>0</v>
+        <f>B2*LOG(B2,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>B2^2</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2869,11 +4110,15 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">C3/B3</f>
-        <v>0.25</v>
+        <f t="shared" ref="F3:F14" si="1">B3*LOG(B3,2)</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="2">B3^2</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2892,10 +4137,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2914,10 +4163,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.9375</v>
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2936,10 +4189,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>6.0625</v>
+        <v>160</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2958,10 +4215,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>8.984375</v>
+        <v>384</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4096</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2980,10 +4241,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>11.0234375</v>
+        <v>896</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>16384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3002,10 +4267,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>12.21484375</v>
+        <v>2048</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>65536</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3021,10 +4290,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>14.271484375</v>
+        <v>4608</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>262144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3040,10 +4313,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>16.4404296875</v>
+        <v>10240</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3059,10 +4336,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>17.33251953125</v>
+        <v>22528</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3078,10 +4359,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>16.9814453125</v>
+        <v>49152</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3094,7 +4379,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>17.9764404296875</v>
+        <v>106496</v>
       </c>
     </row>
   </sheetData>
